--- a/Assets/BOM/OpenDrone_FC_F405_HW_v1.xlsx
+++ b/Assets/BOM/OpenDrone_FC_F405_HW_v1.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="OpenFC_STM32F405RG_HW_v1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="OpenDrone_FC_F405_HW" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="108">
   <si>
     <t xml:space="preserve">Reference</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">~</t>
   </si>
   <si>
-    <t xml:space="preserve">C3,C4,C5,C6,C7,C8,C20,C22,C23,C24,C27,C28,C29,C31,C32,C35</t>
+    <t xml:space="preserve">C3,C4,C5,C6,C7,C8,C20,C22,C23,C24,C27,C28,C29,C30,C31,C32,C33,C34</t>
   </si>
   <si>
     <t xml:space="preserve">100nF</t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">22pF</t>
   </si>
   <si>
-    <t xml:space="preserve">C13,C39</t>
+    <t xml:space="preserve">C13,C19,C39</t>
   </si>
   <si>
     <t xml:space="preserve">10nF</t>
@@ -76,12 +76,6 @@
     <t xml:space="preserve">10uF</t>
   </si>
   <si>
-    <t xml:space="preserve">C19,R12,R13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TBD</t>
-  </si>
-  <si>
     <t xml:space="preserve">C21</t>
   </si>
   <si>
@@ -100,28 +94,10 @@
     <t xml:space="preserve">4.7uF</t>
   </si>
   <si>
-    <t xml:space="preserve">C36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacitor_SMD:C_0805_2012Metric</t>
+    <t xml:space="preserve">C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitor_SMD:C_1206_3216Metric</t>
   </si>
   <si>
     <t xml:space="preserve">C11</t>
@@ -133,31 +109,28 @@
     <t xml:space="preserve">Capacitor_SMD:C_1210_3225Metric</t>
   </si>
   <si>
-    <t xml:space="preserve">C12,C14,C15,C16,C17,C30,C34,C42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C33,C40,C41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conn_02x05_Odd_Even</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connector_PinHeader_1.27mm:PinHeader_2x05_P1.27mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y1,Y2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8MHz</t>
+    <t xml:space="preserve">C12,C14,C16,C17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_02x03_Odd_Even</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector_PinHeader_2.00mm:PinHeader_2x03_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8Mhz</t>
   </si>
   <si>
     <t xml:space="preserve">Crystal:Crystal_SMD_3225-4Pin_3.2x2.5mm</t>
   </si>
   <si>
-    <t xml:space="preserve">D1,D4,D5</t>
+    <t xml:space="preserve">D1,D4</t>
   </si>
   <si>
     <t xml:space="preserve">SS34</t>
@@ -166,18 +139,6 @@
     <t xml:space="preserve">Diode_SMD:D_SMA</t>
   </si>
   <si>
-    <t xml:space="preserve">U9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ai-Thinker-Ra-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Footprint:Ai-Thinker-Ra-02-LoRa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://wiki.ai-thinker.com/_media/lora/docs/c048ps01a1_ra-02_product_specification_v1.1.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">U8</t>
   </si>
   <si>
@@ -187,6 +148,15 @@
     <t xml:space="preserve">Footprint:Board_Outline_34x34_Hole_26x26</t>
   </si>
   <si>
+    <t xml:space="preserve">SW1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Footprint:Button_SMD_4.2x3.3x2.5mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">J8</t>
   </si>
   <si>
@@ -214,34 +184,40 @@
     <t xml:space="preserve">Footprint:Connector_XH_1x08_P1.25mm_Horizontal</t>
   </si>
   <si>
+    <t xml:space="preserve">J11,J12,J16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Footprint:Header_1x05_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2,J3,J4,J5,J7,J9,J13,J14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_01x02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Footprint:HolePad_1x2</t>
+  </si>
+  <si>
     <t xml:space="preserve">L1,L2</t>
   </si>
   <si>
     <t xml:space="preserve">15uH</t>
   </si>
   <si>
-    <t xml:space="preserve">Footprint:Inductor_SMD_5D28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J2,J5,J9,J12,J13,J14,J15,J16,J17,J19,J20,J21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conn_01x02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Footprint:MountingPad_1x2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Footprint:MountingPad_1x4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Footprint:MountingPad_Battery</t>
+    <t xml:space="preserve">Footprint:Inductor_SMD_4D28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMP280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Footprint:LGA-8_2x2.5mm_P0.65mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ae-bst.resource.bosch.com/media/_tech/media/datasheets/BST-BMP280-DS001.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">U5</t>
@@ -274,22 +250,10 @@
     <t xml:space="preserve">http://www.ti.com/lit/ds/symlink/tps5430.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">J4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Footprint:USB_Micro-B_SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ~</t>
-  </si>
-  <si>
     <t xml:space="preserve">D2</t>
   </si>
   <si>
-    <t xml:space="preserve">LED_RED</t>
+    <t xml:space="preserve">RED</t>
   </si>
   <si>
     <t xml:space="preserve">LED_SMD:LED_0402_1005Metric</t>
@@ -307,18 +271,6 @@
     <t xml:space="preserve">GREEN</t>
   </si>
   <si>
-    <t xml:space="preserve">U6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMP280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package_LGA:Bosch_LGA-8_2x2.5mm_P0.65mm_ClockwisePinNumbering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ae-bst.resource.bosch.com/media/_tech/media/datasheets/BST-BMP280-DS001.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">U1</t>
   </si>
   <si>
@@ -331,16 +283,7 @@
     <t xml:space="preserve">https://www.st.com/resource/en/datasheet/stm32f405rg.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">U7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT7456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package_SO:TSSOP-28-1EP_4.4x9.7mm_P0.65mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1,R3,R4,R6,R21</t>
+    <t xml:space="preserve">R1,R3,R21</t>
   </si>
   <si>
     <t xml:space="preserve">10k</t>
@@ -355,19 +298,31 @@
     <t xml:space="preserve">2k2</t>
   </si>
   <si>
+    <t xml:space="preserve">R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rf_Cur</t>
+  </si>
+  <si>
     <t xml:space="preserve">R5,R22</t>
   </si>
   <si>
     <t xml:space="preserve">3.24k</t>
   </si>
   <si>
-    <t xml:space="preserve">R7,R8,R19,R20,R23,R24</t>
+    <t xml:space="preserve">R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ri_Cur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7,R8</t>
   </si>
   <si>
     <t xml:space="preserve">4.7k</t>
   </si>
   <si>
-    <t xml:space="preserve">R9,R18</t>
+    <t xml:space="preserve">R9</t>
   </si>
   <si>
     <t xml:space="preserve">1k</t>
@@ -383,12 +338,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ri_Vol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R14,R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75R</t>
   </si>
   <si>
     <t xml:space="preserve">R16,R17,R25</t>
@@ -490,7 +439,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -498,10 +447,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="76.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="75.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.32"/>
   </cols>
@@ -557,7 +506,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -591,7 +540,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -625,7 +574,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -667,10 +616,10 @@
         <v>24</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>9</v>
@@ -687,7 +636,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>9</v>
@@ -698,19 +647,19 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="D12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -721,7 +670,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>9</v>
@@ -732,13 +681,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>9</v>
@@ -749,64 +698,61 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>9</v>
@@ -817,98 +763,101 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>1</v>
@@ -916,16 +865,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>1</v>
@@ -933,47 +879,44 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>9</v>
@@ -984,13 +927,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>9</v>
@@ -1001,13 +944,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>1</v>
@@ -1015,13 +961,16 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>86</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>1</v>
@@ -1029,33 +978,33 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>1</v>
@@ -1063,13 +1012,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B34" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>9</v>
@@ -1080,30 +1029,30 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>9</v>
@@ -1114,33 +1063,33 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>1</v>
@@ -1148,13 +1097,16 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>104</v>
-      </c>
       <c r="C39" s="0" t="s">
-        <v>105</v>
+        <v>89</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>1</v>
@@ -1162,154 +1114,35 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="0" t="n">
         <v>3</v>
       </c>
     </row>
